--- a/SmartSSO/Content/Template/不良率模板.xlsx
+++ b/SmartSSO/Content/Template/不良率模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -452,6 +452,34 @@
         <v>1.08</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
